--- a/data/trans_orig/q27a-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{900263FD-7414-4B72-A42D-8839C5266A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75408A5B-E8E4-428E-9790-08A2767FC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A12B2E43-7BDB-45FE-910F-D73596371BD9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDB1A2A7-81F6-4D91-9708-833E0D302091}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="325">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -86,67 +86,67 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,19 +161,19 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>5,1%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -182,805 +182,811 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>6,23%</t>
+    <t>5,69%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>70,78%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>20,91%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>71,18%</t>
+    <t>70,91%</t>
   </si>
   <si>
     <t>76,95%</t>
@@ -989,19 +995,19 @@
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1416,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E300EEC-9D62-4DE8-B567-13680693B20F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA841600-E821-4010-8106-5FA7BEB22C3F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1932,10 +1938,10 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,13 +1956,13 @@
         <v>6190</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1965,13 +1971,13 @@
         <v>10268</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -1980,13 +1986,13 @@
         <v>16458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +2007,13 @@
         <v>27851</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2016,13 +2022,13 @@
         <v>27528</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -2031,13 +2037,13 @@
         <v>55379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2058,13 @@
         <v>83080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -2067,13 +2073,13 @@
         <v>110799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
@@ -2082,13 +2088,13 @@
         <v>193879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,7 +2150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2162,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2177,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2192,7 +2198,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2213,13 @@
         <v>903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2222,13 +2228,13 @@
         <v>1974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2237,13 +2243,13 @@
         <v>2876</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2264,13 @@
         <v>4920</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2273,13 +2279,13 @@
         <v>4828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2288,13 +2294,13 @@
         <v>9748</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2315,13 @@
         <v>15606</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -2324,13 +2330,13 @@
         <v>17973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -2339,13 +2345,13 @@
         <v>33579</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2366,13 @@
         <v>59488</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -2375,13 +2381,13 @@
         <v>91640</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>150</v>
@@ -2390,13 +2396,13 @@
         <v>151128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2458,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2470,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2485,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2500,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2530,13 +2536,13 @@
         <v>2837</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2545,13 +2551,13 @@
         <v>2837</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2572,13 @@
         <v>2800</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2581,13 +2587,13 @@
         <v>3636</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2596,13 +2602,13 @@
         <v>6436</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2623,13 @@
         <v>11099</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -2632,13 +2638,13 @@
         <v>26178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2647,13 +2653,13 @@
         <v>37277</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2674,13 @@
         <v>83303</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -2683,13 +2689,13 @@
         <v>110317</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>197</v>
@@ -2698,13 +2704,13 @@
         <v>193619</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,7 +2766,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2778,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2793,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2808,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2838,13 +2844,13 @@
         <v>994</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2853,13 +2859,13 @@
         <v>994</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2880,13 @@
         <v>6142</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2889,13 +2895,13 @@
         <v>4630</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -2904,13 +2910,13 @@
         <v>10772</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2931,13 @@
         <v>9310</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2940,13 +2946,13 @@
         <v>4611</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -2955,13 +2961,13 @@
         <v>13922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2982,13 @@
         <v>35262</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>44</v>
@@ -2991,13 +2997,13 @@
         <v>46695</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -3006,13 +3012,13 @@
         <v>81958</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3074,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -3086,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3101,7 +3107,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3116,7 +3122,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3137,13 @@
         <v>1944</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3152,7 +3158,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3161,13 +3167,13 @@
         <v>1944</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3197,13 +3203,13 @@
         <v>2025</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3212,13 +3218,13 @@
         <v>2025</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3239,13 @@
         <v>15820</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -3248,13 +3254,13 @@
         <v>14572</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -3263,13 +3269,13 @@
         <v>30392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3290,13 @@
         <v>52847</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -3299,13 +3305,13 @@
         <v>81397</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>133</v>
@@ -3314,13 +3320,13 @@
         <v>134244</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,7 +3382,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -3394,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3403,13 +3409,13 @@
         <v>903</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3418,13 +3424,13 @@
         <v>903</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3445,13 @@
         <v>912</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3454,13 +3460,13 @@
         <v>2872</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3469,13 +3475,13 @@
         <v>3784</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3496,13 @@
         <v>3533</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3505,13 +3511,13 @@
         <v>10360</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
@@ -3520,13 +3526,13 @@
         <v>13893</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3547,13 @@
         <v>42869</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H43" s="7">
         <v>34</v>
@@ -3556,13 +3562,13 @@
         <v>34115</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -3571,13 +3577,13 @@
         <v>76984</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3598,13 @@
         <v>127397</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H44" s="7">
         <v>170</v>
@@ -3607,13 +3613,13 @@
         <v>175655</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M44" s="7">
         <v>299</v>
@@ -3622,13 +3628,13 @@
         <v>303052</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,7 +3690,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -3702,7 +3708,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3717,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3732,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3753,13 @@
         <v>2576</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3762,13 +3768,13 @@
         <v>5115</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M47" s="7">
         <v>8</v>
@@ -3777,13 +3783,13 @@
         <v>7691</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3804,13 @@
         <v>11676</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H48" s="7">
         <v>16</v>
@@ -3813,13 +3819,13 @@
         <v>16912</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M48" s="7">
         <v>28</v>
@@ -3828,13 +3834,13 @@
         <v>28588</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>267</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,10 +3858,10 @@
         <v>268</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H49" s="7">
         <v>64</v>
@@ -3864,13 +3870,13 @@
         <v>67434</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M49" s="7">
         <v>106</v>
@@ -3879,13 +3885,13 @@
         <v>109409</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3906,13 @@
         <v>141209</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H50" s="7">
         <v>156</v>
@@ -3915,13 +3921,13 @@
         <v>163290</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M50" s="7">
         <v>290</v>
@@ -3930,13 +3936,13 @@
         <v>304499</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4016,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -4019,13 +4025,13 @@
         <v>2836</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>288</v>
+        <v>50</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
@@ -4034,13 +4040,13 @@
         <v>2836</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4061,13 @@
         <v>8038</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="H53" s="7">
         <v>18</v>
@@ -4085,13 +4091,13 @@
         <v>25721</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>295</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4112,13 @@
         <v>36253</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H54" s="7">
         <v>52</v>
@@ -4121,13 +4127,13 @@
         <v>53852</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M54" s="7">
         <v>89</v>
@@ -4136,13 +4142,13 @@
         <v>90105</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4163,13 @@
         <v>182131</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H55" s="7">
         <v>207</v>
@@ -4172,13 +4178,13 @@
         <v>210181</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M55" s="7">
         <v>387</v>
@@ -4187,13 +4193,13 @@
         <v>392312</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4214,13 @@
         <v>645667</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H56" s="7">
         <v>841</v>
@@ -4223,13 +4229,13 @@
         <v>859294</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M56" s="7">
         <v>1469</v>
@@ -4238,13 +4244,13 @@
         <v>1504962</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4306,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75408A5B-E8E4-428E-9790-08A2767FC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{001BD5C8-CF84-4BC5-98BD-9AD26D1AF080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDB1A2A7-81F6-4D91-9708-833E0D302091}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11D68C67-8124-4029-8273-31814306359B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="323">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -86,67 +86,67 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,853 +161,847 @@
     <t>1,25%</t>
   </si>
   <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1422,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA841600-E821-4010-8106-5FA7BEB22C3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0B6FD-581E-4FEA-9B54-9F45BEE72059}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,10 +1932,10 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1950,13 @@
         <v>6190</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1971,13 +1965,13 @@
         <v>10268</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -1986,13 +1980,13 @@
         <v>16458</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2001,13 @@
         <v>27851</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2022,13 +2016,13 @@
         <v>27528</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -2037,13 +2031,13 @@
         <v>55379</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2052,13 @@
         <v>83080</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -2073,13 +2067,13 @@
         <v>110799</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
@@ -2088,13 +2082,13 @@
         <v>193879</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,7 +2144,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2168,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2183,7 +2177,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2198,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2207,13 @@
         <v>903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2228,13 +2222,13 @@
         <v>1974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2243,13 +2237,13 @@
         <v>2876</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2258,13 @@
         <v>4920</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2279,13 +2273,13 @@
         <v>4828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2294,13 +2288,13 @@
         <v>9748</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2309,13 @@
         <v>15606</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -2330,13 +2324,13 @@
         <v>17973</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -2345,13 +2339,13 @@
         <v>33579</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2360,13 @@
         <v>59488</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -2381,13 +2375,13 @@
         <v>91640</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>150</v>
@@ -2396,13 +2390,13 @@
         <v>151128</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,7 +2452,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2476,7 +2470,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2491,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2506,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2536,13 +2530,13 @@
         <v>2837</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2551,13 +2545,13 @@
         <v>2837</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2566,13 @@
         <v>2800</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2587,13 +2581,13 @@
         <v>3636</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2602,13 +2596,13 @@
         <v>6436</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2617,13 @@
         <v>11099</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -2638,13 +2632,13 @@
         <v>26178</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2653,13 +2647,13 @@
         <v>37277</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2668,13 @@
         <v>83303</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -2689,13 +2683,13 @@
         <v>110317</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>197</v>
@@ -2704,13 +2698,13 @@
         <v>193619</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,7 +2760,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2784,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2799,7 +2793,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2814,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2844,13 +2838,13 @@
         <v>994</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2859,13 +2853,13 @@
         <v>994</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2874,13 @@
         <v>6142</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2895,13 +2889,13 @@
         <v>4630</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -2910,13 +2904,13 @@
         <v>10772</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2925,13 @@
         <v>9310</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2946,13 +2940,13 @@
         <v>4611</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -2961,13 +2955,13 @@
         <v>13922</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2976,13 @@
         <v>35262</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>44</v>
@@ -2997,13 +2991,13 @@
         <v>46695</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -3012,13 +3006,13 @@
         <v>81958</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,7 +3068,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -3092,7 +3086,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3107,7 +3101,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3122,7 +3116,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3131,13 @@
         <v>1944</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3158,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3167,13 +3161,13 @@
         <v>1944</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3188,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3203,13 +3197,13 @@
         <v>2025</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3218,13 +3212,13 @@
         <v>2025</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3233,13 @@
         <v>15820</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -3254,13 +3248,13 @@
         <v>14572</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -3269,13 +3263,13 @@
         <v>30392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3284,13 @@
         <v>52847</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -3305,13 +3299,13 @@
         <v>81397</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>133</v>
@@ -3320,13 +3314,13 @@
         <v>134244</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3376,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -3400,7 +3394,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3409,13 +3403,13 @@
         <v>903</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3424,13 +3418,13 @@
         <v>903</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3439,13 @@
         <v>912</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3460,13 +3454,13 @@
         <v>2872</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3475,13 +3469,13 @@
         <v>3784</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3490,13 @@
         <v>3533</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3511,10 +3505,10 @@
         <v>10360</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>228</v>
@@ -3529,10 +3523,10 @@
         <v>229</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3541,13 @@
         <v>42869</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H43" s="7">
         <v>34</v>
@@ -3562,13 +3556,13 @@
         <v>34115</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -3577,13 +3571,13 @@
         <v>76984</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3592,13 @@
         <v>127397</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H44" s="7">
         <v>170</v>
@@ -3613,13 +3607,13 @@
         <v>175655</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M44" s="7">
         <v>299</v>
@@ -3628,13 +3622,13 @@
         <v>303052</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,7 +3684,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -3708,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3723,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3738,7 +3732,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3747,13 @@
         <v>2576</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3768,13 +3762,13 @@
         <v>5115</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M47" s="7">
         <v>8</v>
@@ -3783,13 +3777,13 @@
         <v>7691</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3798,13 @@
         <v>11676</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H48" s="7">
         <v>16</v>
@@ -3819,10 +3813,10 @@
         <v>16912</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>265</v>
@@ -3840,7 +3834,7 @@
         <v>267</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3849,13 @@
         <v>41975</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H49" s="7">
         <v>64</v>
@@ -3870,13 +3864,13 @@
         <v>67434</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M49" s="7">
         <v>106</v>
@@ -3885,13 +3879,13 @@
         <v>109409</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3900,13 @@
         <v>141209</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H50" s="7">
         <v>156</v>
@@ -3921,13 +3915,13 @@
         <v>163290</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M50" s="7">
         <v>290</v>
@@ -3936,13 +3930,13 @@
         <v>304499</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,7 +4010,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -4025,13 +4019,13 @@
         <v>2836</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
@@ -4040,13 +4034,13 @@
         <v>2836</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4055,13 @@
         <v>8038</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H53" s="7">
         <v>18</v>
@@ -4076,10 +4070,10 @@
         <v>17683</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>294</v>
@@ -4091,13 +4085,13 @@
         <v>25721</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>295</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4106,13 @@
         <v>36253</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H54" s="7">
         <v>52</v>
@@ -4127,13 +4121,13 @@
         <v>53852</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M54" s="7">
         <v>89</v>
@@ -4142,13 +4136,13 @@
         <v>90105</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4157,13 @@
         <v>182131</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H55" s="7">
         <v>207</v>
@@ -4178,13 +4172,13 @@
         <v>210181</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M55" s="7">
         <v>387</v>
@@ -4193,13 +4187,13 @@
         <v>392312</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4208,13 @@
         <v>645667</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H56" s="7">
         <v>841</v>
@@ -4229,13 +4223,13 @@
         <v>859294</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M56" s="7">
         <v>1469</v>
@@ -4244,13 +4238,13 @@
         <v>1504962</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4300,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{001BD5C8-CF84-4BC5-98BD-9AD26D1AF080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E33436-EF2B-4C1A-853B-86E311B78CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11D68C67-8124-4029-8273-31814306359B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1BF562B-4476-4233-941F-C9C6BC1CDF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -86,67 +86,67 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,19 +161,19 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>4,4%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -182,826 +182,826 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>5,85%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>4,06%</t>
+    <t>4,21%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>11,24%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>5,5%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>20,91%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1416,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0B6FD-581E-4FEA-9B54-9F45BEE72059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBDA800-D2FA-4F04-A8FF-3782E88A73DB}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1953,10 +1953,10 @@
         <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1965,13 +1965,13 @@
         <v>10268</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -1980,13 +1980,13 @@
         <v>16458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +2001,13 @@
         <v>27851</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2016,13 +2016,13 @@
         <v>27528</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -2031,13 +2031,13 @@
         <v>55379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2052,13 @@
         <v>83080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -2067,13 +2067,13 @@
         <v>110799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
@@ -2082,13 +2082,13 @@
         <v>193879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2162,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2207,13 @@
         <v>903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2222,13 +2222,13 @@
         <v>1974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2237,13 +2237,13 @@
         <v>2876</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2258,13 @@
         <v>4920</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2273,10 +2273,10 @@
         <v>4828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>93</v>
@@ -2375,13 +2375,13 @@
         <v>91640</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>150</v>
@@ -2390,13 +2390,13 @@
         <v>151128</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2452,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2470,7 +2470,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2530,13 +2530,13 @@
         <v>2837</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2545,13 +2545,13 @@
         <v>2837</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2566,13 @@
         <v>2800</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2581,13 +2581,13 @@
         <v>3636</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2596,13 +2596,13 @@
         <v>6436</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2617,13 @@
         <v>11099</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -2632,13 +2632,13 @@
         <v>26178</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2647,13 +2647,13 @@
         <v>37277</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2668,13 @@
         <v>83303</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -2683,13 +2683,13 @@
         <v>110317</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>197</v>
@@ -2698,13 +2698,13 @@
         <v>193619</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2778,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2838,13 +2838,13 @@
         <v>994</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2853,13 +2853,13 @@
         <v>994</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2874,13 @@
         <v>6142</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2889,13 +2889,13 @@
         <v>4630</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -2904,13 +2904,13 @@
         <v>10772</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2925,13 @@
         <v>9310</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2940,13 +2940,13 @@
         <v>4611</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -2955,13 +2955,13 @@
         <v>13922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2976,13 @@
         <v>35262</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>44</v>
@@ -2991,13 +2991,13 @@
         <v>46695</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -3006,13 +3006,13 @@
         <v>81958</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -3086,7 +3086,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3131,13 @@
         <v>1944</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3161,13 +3161,13 @@
         <v>1944</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3197,13 +3197,13 @@
         <v>2025</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3212,13 +3212,13 @@
         <v>2025</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3233,13 @@
         <v>15820</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -3248,13 +3248,13 @@
         <v>14572</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -3263,13 +3263,13 @@
         <v>30392</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3284,13 @@
         <v>52847</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -3299,13 +3299,13 @@
         <v>81397</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M38" s="7">
         <v>133</v>
@@ -3314,13 +3314,13 @@
         <v>134244</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,7 +3376,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -3394,7 +3394,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3403,13 +3403,13 @@
         <v>903</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3418,13 +3418,13 @@
         <v>903</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3439,13 @@
         <v>912</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3454,13 +3454,13 @@
         <v>2872</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3469,13 +3469,13 @@
         <v>3784</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3490,13 @@
         <v>3533</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3505,13 +3505,13 @@
         <v>10360</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
@@ -3520,13 +3520,13 @@
         <v>13893</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3541,13 @@
         <v>42869</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H43" s="7">
         <v>34</v>
@@ -3556,13 +3556,13 @@
         <v>34115</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -3571,13 +3571,13 @@
         <v>76984</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3592,13 @@
         <v>127397</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H44" s="7">
         <v>170</v>
@@ -3607,13 +3607,13 @@
         <v>175655</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M44" s="7">
         <v>299</v>
@@ -3622,13 +3622,13 @@
         <v>303052</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,7 +3684,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -3702,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3747,13 @@
         <v>2576</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3762,13 +3762,13 @@
         <v>5115</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M47" s="7">
         <v>8</v>
@@ -3777,13 +3777,13 @@
         <v>7691</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3798,13 @@
         <v>11676</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H48" s="7">
         <v>16</v>
@@ -3813,13 +3813,13 @@
         <v>16912</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M48" s="7">
         <v>28</v>
@@ -3828,13 +3828,13 @@
         <v>28588</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3849,13 @@
         <v>41975</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H49" s="7">
         <v>64</v>
@@ -3864,13 +3864,13 @@
         <v>67434</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M49" s="7">
         <v>106</v>
@@ -3879,13 +3879,13 @@
         <v>109409</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3900,13 @@
         <v>141209</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H50" s="7">
         <v>156</v>
@@ -3915,13 +3915,13 @@
         <v>163290</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M50" s="7">
         <v>290</v>
@@ -3930,13 +3930,13 @@
         <v>304499</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -4019,13 +4019,13 @@
         <v>2836</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
@@ -4055,13 +4055,13 @@
         <v>8038</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="H53" s="7">
         <v>18</v>
@@ -4070,10 +4070,10 @@
         <v>17683</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>294</v>
@@ -4085,13 +4085,13 @@
         <v>25721</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>295</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,10 +4139,10 @@
         <v>302</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4157,13 @@
         <v>182131</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H55" s="7">
         <v>207</v>
@@ -4172,10 +4172,10 @@
         <v>210181</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>309</v>

--- a/data/trans_orig/q27a-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E33436-EF2B-4C1A-853B-86E311B78CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F11356D-E5DF-491F-A0F4-6B21ACE585A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1BF562B-4476-4233-941F-C9C6BC1CDF6D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ABCB1E64-16C6-4460-9E22-6475C64BA367}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBDA800-D2FA-4F04-A8FF-3782E88A73DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7B880D-4D60-4EF1-964D-3A2D927316FE}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
